--- a/data/trans_dic/P16B04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,27; 100,0</t>
+          <t>54,83; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 100,0</t>
+          <t>19,9; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,97; 100,0</t>
+          <t>63,72; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,78; 100,0</t>
+          <t>43,48; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +716,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,82; 100,0</t>
+          <t>67,13; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,82; 93,91</t>
+          <t>39,89; 93,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,07; 100,0</t>
+          <t>56,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -800,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,1; 100,0</t>
+          <t>39,11; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -830,7 +831,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,85; 100,0</t>
+          <t>61,94; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,72; 100,0</t>
+          <t>60,47; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,16; 96,07</t>
+          <t>59,92; 95,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,55; 100,0</t>
+          <t>42,06; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,87; 100,0</t>
+          <t>76,03; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,5; 96,75</t>
+          <t>71,41; 96,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,35; 100,0</t>
+          <t>69,43; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,22 +1016,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,65; 100,0</t>
+          <t>80,57; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,83; 97,06</t>
+          <t>70,58; 97,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,07; 100,0</t>
+          <t>82,33; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,28; 100,0</t>
+          <t>71,12; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 100,0</t>
+          <t>86,61; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,21; 98,57</t>
+          <t>86,64; 98,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,76; 100,0</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,79; 100,0</t>
+          <t>77,33; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,54; 100,0</t>
+          <t>66,09; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,66; 100,0</t>
+          <t>58,38; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,46; 100,0</t>
+          <t>74,82; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,51; 100,0</t>
+          <t>81,88; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,89; 100,0</t>
+          <t>72,43; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,49; 100,0</t>
+          <t>85,63; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,59; 100,0</t>
+          <t>68,88; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,17; 100,0</t>
+          <t>79,1; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,17 +1266,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,53; 100,0</t>
+          <t>69,07; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>77,51; 100,0</t>
+          <t>78,15; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>78,25; 100,0</t>
+          <t>76,3; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,61</t>
+          <t>87,98; 98,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,65; 91,91</t>
+          <t>75,8; 91,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,47</t>
+          <t>86,99; 98,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85,91; 98,61</t>
+          <t>86,45; 98,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,43; 99,01</t>
+          <t>88,44; 98,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,13; 98,88</t>
+          <t>85,23; 98,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,62; 98,2</t>
+          <t>90,43; 98,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,42; 94,15</t>
+          <t>84,91; 94,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>89,94; 98,05</t>
+          <t>89,56; 98,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas antibióticas fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9153</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6655</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12226</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12742</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15387</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5538; 10101</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1891; 9505</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8636; 13553</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1708; 3073</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3305; 7602</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>698; 4829</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8844; 13174</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6825; 16076</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10321; 18382</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6218</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7099</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9674</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7109</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13473</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13327</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11744</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2423; 3800</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3169; 8102</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5449; 7099</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8022; 9674</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5456; 7109</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2961; 4645</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11775; 13473</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9422; 15211</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9902; 11744</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8058</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19255</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6872</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13951</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26602</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13029</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5383; 8902</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13873; 22192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4530; 6157</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4336; 5893</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5639; 7347</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3265; 7762</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11248; 14795</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21780; 29538</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9664; 13919</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22563</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31367</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24596</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34697</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27261</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41861</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66064</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51857</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18852; 23399</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24932; 34282</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21117; 25651</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14542; 20449</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32629; 34697</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25338; 27261</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37977; 43848</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60665; 69034</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46596; 52912</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10538</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15663</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12702</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12484</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14469</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15472</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23022</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30131</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28174</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8885; 10538</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12804; 16558</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10709; 12702</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8940; 13527</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9537; 16335</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12329; 16478</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19704; 24065</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23825; 32892</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24987; 29180</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20793</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26283</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17904</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22716</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28582</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19805</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>828; 1922</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>990; 2298</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2956</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15273; 22174</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22327; 28228</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15909; 17904</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16644; 24097</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23858; 30527</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15916; 20860</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56035</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>80888</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>71216</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>96559</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>127249</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>139996</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51613; 57852</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>71967; 87020</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>59252; 67077</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>64658; 73732</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>89603; 99474</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>67230; 77955</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>120679; 130909</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>166649; 184605</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>131643; 144053</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
